--- a/IntentionLearning/log/ERROR_Q/xlsx形式/10データクロスバリデーション/成功率.xlsx
+++ b/IntentionLearning/log/ERROR_Q/xlsx形式/10データクロスバリデーション/成功率.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -18,27 +18,96 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>MtC</t>
+    <t>赤を中央に移動する</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RtB</t>
+    <t>赤を青の右に動かす</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウゴ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NbO</t>
+    <t>赤を橙に近づける</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AfG</t>
+    <t>赤を緑から遠ざける</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トオ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MtS</t>
+    <t>等間隔に赤、黄、青と並べる</t>
+    <rPh sb="0" eb="3">
+      <t>トウカンカク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MtT</t>
+    <t>時計回りに赤、緑、青と並べる</t>
+    <rPh sb="0" eb="3">
+      <t>トケイマワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -94,6 +163,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -127,7 +199,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MtC</c:v>
+                  <c:v>赤を中央に移動する</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -290,7 +362,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RtB</c:v>
+                  <c:v>赤を青の右に動かす</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -453,7 +525,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NbO</c:v>
+                  <c:v>赤を橙に近づける</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -616,7 +688,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AfG</c:v>
+                  <c:v>赤を緑から遠ざける</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -779,7 +851,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MtS</c:v>
+                  <c:v>等間隔に赤、黄、青と並べる</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -942,7 +1014,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MtT</c:v>
+                  <c:v>時計回りに赤、緑、青と並べる</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1104,13 +1176,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193185280"/>
-        <c:axId val="193186816"/>
+        <c:axId val="270117064"/>
+        <c:axId val="270113928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193185280"/>
+        <c:axId val="270117064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,7 +1223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193186816"/>
+        <c:crossAx val="270113928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1160,7 +1231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193186816"/>
+        <c:axId val="270113928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193185280"/>
+        <c:crossAx val="270117064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1248,7 +1319,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1290,7 +1361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1325,7 +1396,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1536,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2018,7 +2089,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/IntentionLearning/log/ERROR_Q/xlsx形式/10データクロスバリデーション/成功率.xlsx
+++ b/IntentionLearning/log/ERROR_Q/xlsx形式/10データクロスバリデーション/成功率.xlsx
@@ -18,96 +18,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>赤を中央に移動する</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イドウ</t>
-    </rPh>
+    <t>T1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>赤を青の右に動かす</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウゴ</t>
-    </rPh>
+    <t>T2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>赤を橙に近づける</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ダイダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チカ</t>
-    </rPh>
+    <t>T7</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>赤を緑から遠ざける</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミドリ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トオ</t>
-    </rPh>
+    <t>T10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>等間隔に赤、黄、青と並べる</t>
-    <rPh sb="0" eb="3">
-      <t>トウカンカク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナラ</t>
-    </rPh>
+    <t>T14</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時計回りに赤、緑、青と並べる</t>
-    <rPh sb="0" eb="3">
-      <t>トケイマワ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ミドリ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナラ</t>
-    </rPh>
+    <t>T15</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -199,7 +130,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>赤を中央に移動する</c:v>
+                  <c:v>T1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -362,7 +293,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>赤を青の右に動かす</c:v>
+                  <c:v>T2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -525,7 +456,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>赤を橙に近づける</c:v>
+                  <c:v>T7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -688,7 +619,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>赤を緑から遠ざける</c:v>
+                  <c:v>T10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -851,7 +782,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>等間隔に赤、黄、青と並べる</c:v>
+                  <c:v>T14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1014,7 +945,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>時計回りに赤、緑、青と並べる</c:v>
+                  <c:v>T15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1177,11 +1108,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="270117064"/>
-        <c:axId val="270113928"/>
+        <c:axId val="280412928"/>
+        <c:axId val="280410968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270117064"/>
+        <c:axId val="280412928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,7 +1154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270113928"/>
+        <c:crossAx val="280410968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1231,7 +1162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270113928"/>
+        <c:axId val="280410968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270117064"/>
+        <c:crossAx val="280412928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1607,7 +1538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/IntentionLearning/log/ERROR_Q/xlsx形式/10データクロスバリデーション/成功率.xlsx
+++ b/IntentionLearning/log/ERROR_Q/xlsx形式/10データクロスバリデーション/成功率.xlsx
@@ -18,27 +18,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>T2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>T1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>T2</t>
+    <t>T3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>T7</t>
+    <t>T4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>T10</t>
+    <t>T5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>T14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T15</t>
+    <t>T6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -456,7 +456,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>T7</c:v>
+                  <c:v>T3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -619,7 +619,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>T10</c:v>
+                  <c:v>T4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -782,7 +782,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>T14</c:v>
+                  <c:v>T5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -945,7 +945,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>T15</c:v>
+                  <c:v>T6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1108,11 +1108,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="280412928"/>
-        <c:axId val="280410968"/>
+        <c:axId val="278043192"/>
+        <c:axId val="277391200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280412928"/>
+        <c:axId val="278043192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280410968"/>
+        <c:crossAx val="277391200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1162,7 +1162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280410968"/>
+        <c:axId val="277391200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280412928"/>
+        <c:crossAx val="278043192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/IntentionLearning/log/ERROR_Q/xlsx形式/10データクロスバリデーション/成功率.xlsx
+++ b/IntentionLearning/log/ERROR_Q/xlsx形式/10データクロスバリデーション/成功率.xlsx
@@ -11,18 +11,42 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>T2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>T1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -115,6 +139,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>教示誤差と観点推定正答率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -126,7 +206,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -135,12 +215,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$V$1</c:f>
+              <c:f>Sheet1!$B$8:$V$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -212,72 +301,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$V$2</c:f>
+              <c:f>Sheet1!$B$9:$V$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.96</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -289,7 +378,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -298,12 +387,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$V$1</c:f>
+              <c:f>Sheet1!$B$8:$V$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -375,72 +473,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$V$3</c:f>
+              <c:f>Sheet1!$B$10:$V$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.88</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.74</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.8</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.74</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.74</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.74</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>57.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -452,7 +550,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -461,12 +559,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$V$1</c:f>
+              <c:f>Sheet1!$B$8:$V$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -538,72 +645,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$V$4</c:f>
+              <c:f>Sheet1!$B$11:$V$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,7 +722,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -624,12 +731,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$V$1</c:f>
+              <c:f>Sheet1!$B$8:$V$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -701,72 +817,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$V$5</c:f>
+              <c:f>Sheet1!$B$12:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,7 +894,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -787,12 +903,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$V$1</c:f>
+              <c:f>Sheet1!$B$8:$V$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -864,72 +989,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$V$6</c:f>
+              <c:f>Sheet1!$B$13:$V$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.74</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.62</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.62</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.62</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,7 +1066,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>Sheet1!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -950,12 +1075,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$V$1</c:f>
+              <c:f>Sheet1!$B$8:$V$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1027,72 +1161,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$V$7</c:f>
+              <c:f>Sheet1!$B$14:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.86</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.88</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.86</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.86</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.78</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,11 +1242,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="278043192"/>
-        <c:axId val="277391200"/>
+        <c:axId val="348449040"/>
+        <c:axId val="348454136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="278043192"/>
+        <c:axId val="348449040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,40 +1255,110 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
                   <a:t>教示誤差</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
                   <a:t>[</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>物体長</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+                  <a:t>マス</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>/10]</a:t>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+                  <a:t>]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="277391200"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348454136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1162,50 +1366,192 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277391200"/>
+        <c:axId val="348454136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>成功率</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+                  <a:t>正答率</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="278043192"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348449040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1214,24 +1560,580 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1536,10 +2438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2015,6 +2917,605 @@
       </c>
       <c r="V7">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2.5</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3.5</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4.5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5.5</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>6.5</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>7.5</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <v>8.5</v>
+      </c>
+      <c r="T8">
+        <v>9</v>
+      </c>
+      <c r="U8">
+        <v>9.5</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f>100*B2</f>
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:V9" si="0">100*C2</f>
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:V10" si="1">100*B3</f>
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:V11" si="2">100*B4</f>
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:V12" si="3">100*B5</f>
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:V13" si="4">100*B6</f>
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:V14" si="5">100*B7</f>
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="5"/>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
